--- a/DungeonShooting_Godot/excel/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>Id</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>vector2</t>
+  </si>
+  <si>
+    <t>0001</t>
   </si>
 </sst>
 </file>
@@ -906,7 +909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1260,7 +1263,7 @@
   <dimension ref="A1:AV4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1298,13 +1301,13 @@
     <col min="33" max="33" width="17.7777777777778" style="1" customWidth="1"/>
     <col min="34" max="34" width="19.0092592592593" style="1" customWidth="1"/>
     <col min="35" max="35" width="20" style="1" customWidth="1"/>
-    <col min="36" max="36" width="30.9814814814815" style="2" customWidth="1"/>
-    <col min="37" max="37" width="22.962962962963" style="2" customWidth="1"/>
-    <col min="38" max="38" width="23.7037037037037" style="2" customWidth="1"/>
-    <col min="39" max="39" width="27.6481481481481" style="2" customWidth="1"/>
-    <col min="40" max="40" width="27.7777777777778" style="2" customWidth="1"/>
-    <col min="41" max="41" width="24.0740740740741" style="2" customWidth="1"/>
-    <col min="42" max="44" width="9" style="2"/>
+    <col min="36" max="36" width="30.9814814814815" style="1" customWidth="1"/>
+    <col min="37" max="37" width="22.962962962963" style="1" customWidth="1"/>
+    <col min="38" max="38" width="23.7037037037037" style="1" customWidth="1"/>
+    <col min="39" max="39" width="27.6481481481481" style="1" customWidth="1"/>
+    <col min="40" max="40" width="27.7777777777778" style="1" customWidth="1"/>
+    <col min="41" max="41" width="24.0740740740741" style="1" customWidth="1"/>
+    <col min="42" max="44" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:41">
@@ -1413,22 +1416,22 @@
       <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1556,9 +1559,6 @@
       <c r="AO2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
@@ -1670,30 +1670,37 @@
       <c r="AI3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AJ3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AJ3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AO3" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" ht="47" customHeight="1"/>
+    <row r="4" ht="47" customHeight="1" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="A4" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
